--- a/files/teachers.xlsx
+++ b/files/teachers.xlsx
@@ -33,13 +33,13 @@
     <t>#</t>
   </si>
   <si>
-    <t>ybjhansi@gmail.com</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Jhansi</t>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Sarma</t>
+  </si>
+  <si>
+    <t>subhra_ug@ece.nits.ac.in</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -408,7 +408,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -437,13 +437,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -460,7 +460,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" tooltip="mailto:ybjhansi@gmail.com" display="mailto:ybjhansi@gmail.com"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/files/teachers.xlsx
+++ b/files/teachers.xlsx
@@ -39,7 +39,7 @@
     <t>Sarma</t>
   </si>
   <si>
-    <t>subhra_ug@ece.nits.ac.in</t>
+    <t>subhrasankhasarma1999@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -408,14 +408,14 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="34.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
